--- a/DATA/RAW/bond_data/os_PA2408010_Hazleton.xlsx
+++ b/DATA/RAW/bond_data/os_PA2408010_Hazleton.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubystanmyer/Library/Application Support/Box/Box Edit/Documents/506140794034/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19524\Box\Shrinking Cities MP\data\bond_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CA409F-DB4C-EA47-9128-B58D700BAB02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B433B38D-2F28-46AE-BE9D-282759D528D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="460" windowWidth="18040" windowHeight="15540" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="17" r:id="rId1"/>
@@ -33,8 +33,9 @@
     <sheet name="fiscal" sheetId="16" r:id="rId18"/>
     <sheet name="Assets" sheetId="20" r:id="rId19"/>
     <sheet name="revCollect" sheetId="15" r:id="rId20"/>
+    <sheet name="financialIndicators" sheetId="21" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="472">
   <si>
     <t>Put any interesting about utility development, finances, etc. here</t>
   </si>
@@ -1294,13 +1295,343 @@
   </si>
   <si>
     <t>percentCollected</t>
+  </si>
+  <si>
+    <t>Line Item</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>Enter as shown in the Total Operating Revenues line</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>Enter as shown in the Total Operating Expenses line</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>Depreciation &amp; Amortization Expenses</t>
+  </si>
+  <si>
+    <t>Depreciation and amortization are listed as a line item within Operating Expenses</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>Debt Principal Payments</t>
+  </si>
+  <si>
+    <t>Enter $0 if there were no debt service payments</t>
+  </si>
+  <si>
+    <t>[4b]</t>
+  </si>
+  <si>
+    <t>Debt Interest Payments</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>Current Assets, excluding inventories, restricted cash, prepaids</t>
+  </si>
+  <si>
+    <t>Total Current Assets minus all inventories, prepaid items and any kind of restricted cash or restricted assets that cannot be used to pay for Current Liabilities</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>Current Liabilities, excluding deposits &amp; bond anticipation notes</t>
+  </si>
+  <si>
+    <t>Total Current Liabilities minus all refundable deposits and bond anticipation notes</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>Unrestricted Cash &amp; Investments</t>
+  </si>
+  <si>
+    <t>Unrestricted Cash &amp; Investments (and Cash Equivalents) is listed as a line item within Current Assets</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>Total Accumulated Depreciation</t>
+  </si>
+  <si>
+    <t>Total accumulated depreciation on capital assets being depreciated (buildings, equipment, other improvements) is usually shown in the Detail Notes on Capital Assets.</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>Total Depreciable Capital Assets</t>
+  </si>
+  <si>
+    <t>Enter the total value of capital assets being depreciated (buildings, equipment, othre improvements) only. Often listed in Detail Notes on Capital Assets.</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>Capital Spending</t>
+  </si>
+  <si>
+    <t>Enter Current PPE less Prior PPE + Depreciation</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Operating Ratio (including depreciation)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_[1]_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[2]</t>
+    </r>
+  </si>
+  <si>
+    <t>Operating Ratio (not including depreciation)</t>
+  </si>
+  <si>
+    <r>
+      <t>___</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">___
+ [2] - [3] </t>
+    </r>
+  </si>
+  <si>
+    <t>Debt Service coverage ratio</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[1] -  [2] + [3] _
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[4] + [4b]</t>
+    </r>
+  </si>
+  <si>
+    <t>Quick Ratio</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[5]_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[6]</t>
+    </r>
+  </si>
+  <si>
+    <t>Days cash on hand</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">____[7]____
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(([2] - [3])/365)</t>
+    </r>
+  </si>
+  <si>
+    <t>Percent of capital assets depreciated</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[8]_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[9]</t>
+    </r>
+  </si>
+  <si>
+    <t>Debt to Equity Ratio</t>
+  </si>
+  <si>
+    <r>
+      <t>__</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[11]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__
+( [10] - [11])</t>
+    </r>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Average plant age</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[8]_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3]</t>
+    </r>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Replacement ratio</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_CapEx_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3]</t>
+    </r>
+  </si>
+  <si>
+    <t>*in cases where accumulated depcreciation is not available, calculate as: 35 - (net PPE / annual depreciation expense)</t>
+  </si>
+  <si>
+    <t>**can also look in cash flow statement for capex value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1308,7 +1639,7 @@
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1373,6 +1704,36 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1424,7 +1785,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1514,6 +1875,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1804,23 +2195,23 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.95">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.95">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
@@ -1831,7 +2222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1842,12 +2233,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1858,12 +2249,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1874,7 +2265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1899,18 +2290,18 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1936,7 +2327,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>37</v>
       </c>
@@ -1959,7 +2350,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>37</v>
       </c>
@@ -1982,7 +2373,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>37</v>
       </c>
@@ -2005,7 +2396,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>37</v>
       </c>
@@ -2028,7 +2419,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
@@ -2051,7 +2442,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>37</v>
       </c>
@@ -2074,7 +2465,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>37</v>
       </c>
@@ -2097,7 +2488,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>37</v>
       </c>
@@ -2120,7 +2511,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>37</v>
       </c>
@@ -2143,7 +2534,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>37</v>
       </c>
@@ -2166,7 +2557,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>37</v>
       </c>
@@ -2189,7 +2580,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>37</v>
       </c>
@@ -2212,7 +2603,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>37</v>
       </c>
@@ -2235,7 +2626,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>37</v>
       </c>
@@ -2258,7 +2649,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>37</v>
       </c>
@@ -2281,7 +2672,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>37</v>
       </c>
@@ -2304,7 +2695,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>37</v>
       </c>
@@ -2327,7 +2718,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>37</v>
       </c>
@@ -2350,7 +2741,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>37</v>
       </c>
@@ -2373,7 +2764,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>37</v>
       </c>
@@ -2396,7 +2787,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>37</v>
       </c>
@@ -2419,7 +2810,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>37</v>
       </c>
@@ -2442,7 +2833,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>37</v>
       </c>
@@ -2465,7 +2856,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>37</v>
       </c>
@@ -2488,7 +2879,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>37</v>
       </c>
@@ -2511,7 +2902,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>37</v>
       </c>
@@ -2548,21 +2939,21 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="7" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -2610,23 +3001,23 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -2664,7 +3055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>37</v>
       </c>
@@ -2687,7 +3078,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>37</v>
       </c>
@@ -2716,7 +3107,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>37</v>
       </c>
@@ -2739,7 +3130,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>37</v>
       </c>
@@ -2762,7 +3153,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
@@ -2785,7 +3176,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>37</v>
       </c>
@@ -2808,7 +3199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>37</v>
       </c>
@@ -2831,7 +3222,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>37</v>
       </c>
@@ -2864,25 +3255,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J8" sqref="J8:J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -2917,7 +3308,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>37</v>
       </c>
@@ -2946,7 +3337,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>37</v>
       </c>
@@ -2972,7 +3363,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>37</v>
       </c>
@@ -2998,7 +3389,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>37</v>
       </c>
@@ -3024,7 +3415,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
@@ -3050,7 +3441,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>37</v>
       </c>
@@ -3076,7 +3467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>37</v>
       </c>
@@ -3102,7 +3493,7 @@
         <v>4719420</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>37</v>
       </c>
@@ -3128,7 +3519,7 @@
         <v>1083363</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>37</v>
       </c>
@@ -3154,7 +3545,7 @@
         <v>417142</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>37</v>
       </c>
@@ -3180,7 +3571,7 @@
         <v>89608</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>37</v>
       </c>
@@ -3206,7 +3597,7 @@
         <v>249526</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>37</v>
       </c>
@@ -3232,7 +3623,7 @@
         <v>59222</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>37</v>
       </c>
@@ -3258,7 +3649,7 @@
         <v>13959</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>37</v>
       </c>
@@ -3284,7 +3675,7 @@
         <v>4956016</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>37</v>
       </c>
@@ -3310,7 +3701,7 @@
         <v>1124550</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>37</v>
       </c>
@@ -3336,7 +3727,7 @@
         <v>401174</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>37</v>
       </c>
@@ -3362,7 +3753,7 @@
         <v>258211</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>37</v>
       </c>
@@ -3388,7 +3779,7 @@
         <v>98370</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>37</v>
       </c>
@@ -3414,7 +3805,7 @@
         <v>62787</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>37</v>
       </c>
@@ -3440,7 +3831,7 @@
         <v>17522</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>37</v>
       </c>
@@ -3466,7 +3857,7 @@
         <v>5145031</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>37</v>
       </c>
@@ -3492,7 +3883,7 @@
         <v>1193642</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>37</v>
       </c>
@@ -3518,7 +3909,7 @@
         <v>391996</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>37</v>
       </c>
@@ -3544,7 +3935,7 @@
         <v>264331</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>37</v>
       </c>
@@ -3570,7 +3961,7 @@
         <v>102190</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>37</v>
       </c>
@@ -3596,7 +3987,7 @@
         <v>57813</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>37</v>
       </c>
@@ -3622,7 +4013,7 @@
         <v>20754</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f>$A$14</f>
         <v>PA2408010</v>
@@ -3650,7 +4041,7 @@
         <v>4894671.0959999999</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" ref="A30:A46" si="0">$A$14</f>
         <v>PA2408010</v>
@@ -3678,7 +4069,7 @@
         <v>1150360.4879999999</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -3706,7 +4097,7 @@
         <v>390972.19199999998</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -3734,7 +4125,7 @@
         <v>97743.047999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -3762,7 +4153,7 @@
         <v>75186.960000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -3793,7 +4184,7 @@
       <c r="L34" s="36"/>
       <c r="M34" s="36"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -3821,7 +4212,7 @@
         <v>5026768.9139999999</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -3850,7 +4241,7 @@
         <v>1191359.605</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -3879,7 +4270,7 @@
         <v>407368.12299999996</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -3908,7 +4299,7 @@
         <v>92234.292000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -3937,7 +4328,7 @@
         <v>76861.91</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -3966,7 +4357,7 @@
         <v>269016.685</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -3994,7 +4385,7 @@
         <v>5621549.3620000007</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -4023,7 +4414,7 @@
         <v>1195197.4449999998</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -4052,7 +4443,7 @@
         <v>445108.01399999997</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -4081,7 +4472,7 @@
         <v>115398.374</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -4110,7 +4501,7 @@
         <v>82427.41</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -4153,22 +4544,22 @@
       <selection activeCell="I15" sqref="I15:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" style="1"/>
-    <col min="10" max="10" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4206,7 +4597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>37</v>
       </c>
@@ -4238,7 +4629,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>37</v>
       </c>
@@ -4267,7 +4658,7 @@
         <v>486919</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>37</v>
       </c>
@@ -4296,7 +4687,7 @@
         <v>681280</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>37</v>
       </c>
@@ -4325,7 +4716,7 @@
         <v>88177</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
@@ -4354,7 +4745,7 @@
         <v>143966</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>37</v>
       </c>
@@ -4383,7 +4774,7 @@
         <v>34901</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
       <c r="B8" s="21" t="s">
         <v>38</v>
@@ -4410,7 +4801,7 @@
         <v>4719420</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="21" t="s">
         <v>38</v>
@@ -4437,7 +4828,7 @@
         <v>1083363</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
         <v>38</v>
       </c>
@@ -4463,7 +4854,7 @@
         <v>417142</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>38</v>
       </c>
@@ -4489,7 +4880,7 @@
         <v>89608</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>38</v>
       </c>
@@ -4515,7 +4906,7 @@
         <v>249526</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>38</v>
       </c>
@@ -4541,7 +4932,7 @@
         <v>59222</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>38</v>
       </c>
@@ -4567,7 +4958,7 @@
         <v>13959</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
         <v>38</v>
       </c>
@@ -4593,7 +4984,7 @@
         <v>4956016</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="21" t="s">
         <v>38</v>
       </c>
@@ -4619,7 +5010,7 @@
         <v>1124550</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
         <v>38</v>
       </c>
@@ -4645,7 +5036,7 @@
         <v>401174</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
         <v>38</v>
       </c>
@@ -4671,7 +5062,7 @@
         <v>258211</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
@@ -4697,7 +5088,7 @@
         <v>98370</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
         <v>38</v>
       </c>
@@ -4723,7 +5114,7 @@
         <v>62787</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
         <v>38</v>
       </c>
@@ -4749,7 +5140,7 @@
         <v>17522</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>37</v>
       </c>
@@ -4778,7 +5169,7 @@
         <v>5145031</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>37</v>
       </c>
@@ -4807,7 +5198,7 @@
         <v>1193642</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>37</v>
       </c>
@@ -4836,7 +5227,7 @@
         <v>391996</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>37</v>
       </c>
@@ -4865,7 +5256,7 @@
         <v>264331</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>37</v>
       </c>
@@ -4894,7 +5285,7 @@
         <v>102190</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>37</v>
       </c>
@@ -4923,7 +5314,7 @@
         <v>57813</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>37</v>
       </c>
@@ -4966,17 +5357,17 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5002,7 +5393,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>37</v>
       </c>
@@ -5026,22 +5417,22 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.85546875" style="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5082,7 +5473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>37</v>
       </c>
@@ -5124,7 +5515,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>37</v>
       </c>
@@ -5163,7 +5554,7 @@
         <v>7.1270335666994405E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>37</v>
       </c>
@@ -5202,7 +5593,7 @@
         <v>7.2221089655421563E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>37</v>
       </c>
@@ -5241,7 +5632,7 @@
         <v>7.072205864516911E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
@@ -5280,7 +5671,7 @@
         <v>6.9469640471686829E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>37</v>
       </c>
@@ -5319,7 +5710,7 @@
         <v>5.7299421702789819E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>37</v>
       </c>
@@ -5358,7 +5749,7 @@
         <v>5.6023950777213212E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>37</v>
       </c>
@@ -5397,7 +5788,7 @@
         <v>5.0721731777788673E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>37</v>
       </c>
@@ -5436,7 +5827,7 @@
         <v>4.7478175151025636E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>37</v>
       </c>
@@ -5475,7 +5866,7 @@
         <v>4.2170278981309211E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>37</v>
       </c>
@@ -5501,7 +5892,7 @@
         <v>396100</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>37</v>
       </c>
@@ -5527,7 +5918,7 @@
         <v>68310</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>37</v>
       </c>
@@ -5553,7 +5944,7 @@
         <v>57800</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>37</v>
       </c>
@@ -5582,7 +5973,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>37</v>
       </c>
@@ -5608,7 +5999,7 @@
         <v>48955</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>37</v>
       </c>
@@ -5634,7 +6025,7 @@
         <v>36700</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>37</v>
       </c>
@@ -5660,7 +6051,7 @@
         <v>25140</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>37</v>
       </c>
@@ -5686,7 +6077,7 @@
         <v>20353</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>37</v>
       </c>
@@ -5712,7 +6103,7 @@
         <v>19968</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>37</v>
       </c>
@@ -5751,27 +6142,27 @@
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="1"/>
-    <col min="15" max="15" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="9.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -5821,7 +6212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>37</v>
       </c>
@@ -5838,7 +6229,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>37</v>
       </c>
@@ -5882,7 +6273,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>37</v>
       </c>
@@ -5926,7 +6317,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>37</v>
       </c>
@@ -5970,7 +6361,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
@@ -6014,7 +6405,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>37</v>
       </c>
@@ -6058,7 +6449,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>37</v>
       </c>
@@ -6102,7 +6493,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>37</v>
       </c>
@@ -6146,7 +6537,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>37</v>
       </c>
@@ -6190,7 +6581,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>37</v>
       </c>
@@ -6234,7 +6625,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>37</v>
       </c>
@@ -6278,7 +6669,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>37</v>
       </c>
@@ -6319,7 +6710,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>37</v>
       </c>
@@ -6360,7 +6751,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>37</v>
       </c>
@@ -6410,34 +6801,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:AS33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="8.85546875" style="1"/>
-    <col min="19" max="22" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" style="1"/>
-    <col min="24" max="24" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="8.85546875" style="1"/>
-    <col min="32" max="33" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="8.88671875" style="1"/>
+    <col min="19" max="22" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" style="1"/>
+    <col min="24" max="24" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="8.88671875" style="1"/>
+    <col min="32" max="33" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E1" s="10"/>
       <c r="F1" s="11" t="s">
         <v>277</v>
@@ -6475,7 +6866,7 @@
       <c r="AG1" s="13"/>
       <c r="AH1" s="13"/>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -6582,7 +6973,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>37</v>
       </c>
@@ -6650,7 +7041,7 @@
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>46</v>
       </c>
@@ -6704,7 +7095,7 @@
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>317</v>
       </c>
@@ -6779,7 +7170,7 @@
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>319</v>
       </c>
@@ -6818,7 +7209,7 @@
       <c r="AH6" s="13"/>
       <c r="AI6" s="13"/>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>320</v>
       </c>
@@ -6859,7 +7250,7 @@
       <c r="AH7" s="13"/>
       <c r="AI7" s="13"/>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>321</v>
       </c>
@@ -6900,7 +7291,7 @@
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>322</v>
       </c>
@@ -6941,7 +7332,7 @@
       <c r="AH9" s="13"/>
       <c r="AI9" s="13"/>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>323</v>
       </c>
@@ -6982,7 +7373,7 @@
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>324</v>
       </c>
@@ -7023,7 +7414,7 @@
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>325</v>
       </c>
@@ -7064,7 +7455,7 @@
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>326</v>
       </c>
@@ -7105,7 +7496,7 @@
       <c r="AH13" s="13"/>
       <c r="AI13" s="13"/>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>327</v>
       </c>
@@ -7243,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>329</v>
       </c>
@@ -7308,7 +7699,7 @@
       <c r="AH15" s="13"/>
       <c r="AI15" s="13"/>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>332</v>
       </c>
@@ -7381,7 +7772,7 @@
       <c r="AH16" s="13"/>
       <c r="AI16" s="13"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>334</v>
       </c>
@@ -7446,7 +7837,7 @@
       <c r="AH17" s="13"/>
       <c r="AI17" s="13"/>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>336</v>
       </c>
@@ -7487,7 +7878,7 @@
       <c r="AH18" s="13"/>
       <c r="AI18" s="13"/>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>337</v>
       </c>
@@ -7528,7 +7919,7 @@
       <c r="AH19" s="13"/>
       <c r="AI19" s="13"/>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>338</v>
       </c>
@@ -7569,7 +7960,7 @@
       <c r="AH20" s="13"/>
       <c r="AI20" s="13"/>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>339</v>
       </c>
@@ -7707,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>341</v>
       </c>
@@ -7845,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>344</v>
       </c>
@@ -7887,7 +8278,7 @@
       <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>345</v>
       </c>
@@ -7929,7 +8320,7 @@
       <c r="AH24" s="13"/>
       <c r="AI24" s="13"/>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>346</v>
       </c>
@@ -7971,7 +8362,7 @@
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>347</v>
       </c>
@@ -8013,7 +8404,7 @@
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>348</v>
       </c>
@@ -8055,7 +8446,7 @@
       <c r="AH27" s="13"/>
       <c r="AI27" s="13"/>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>349</v>
       </c>
@@ -8193,7 +8584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>351</v>
       </c>
@@ -8269,7 +8660,7 @@
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>354</v>
       </c>
@@ -8366,7 +8757,7 @@
       <c r="AL30" s="15"/>
       <c r="AM30" s="15"/>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>356</v>
       </c>
@@ -8441,7 +8832,7 @@
       </c>
       <c r="AI31" s="15"/>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>359</v>
       </c>
@@ -8510,7 +8901,7 @@
       <c r="AH32" s="15"/>
       <c r="AI32" s="15"/>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>361</v>
       </c>
@@ -8674,25 +9065,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01406E6-3C80-F943-9E6B-3D8A087374A8}">
   <dimension ref="A1:AI58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z57" sqref="Z57"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" style="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.88671875" style="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="35" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E1" s="10"/>
       <c r="F1" s="11" t="s">
         <v>277</v>
@@ -8732,7 +9123,7 @@
       <c r="AG1" s="13"/>
       <c r="AH1" s="13"/>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -8839,7 +9230,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>37</v>
       </c>
@@ -8904,7 +9295,7 @@
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f>$A$3</f>
         <v>PA2408010</v>
@@ -8970,7 +9361,7 @@
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" ref="A5:A58" si="0">$A$3</f>
         <v>PA2408010</v>
@@ -9036,7 +9427,7 @@
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -9102,7 +9493,7 @@
       <c r="AH6" s="13"/>
       <c r="AI6" s="13"/>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -9168,7 +9559,7 @@
       <c r="AH7" s="13"/>
       <c r="AI7" s="13"/>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -9218,7 +9609,7 @@
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -9261,7 +9652,7 @@
       <c r="AH9" s="13"/>
       <c r="AI9" s="13"/>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -9304,7 +9695,7 @@
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
     </row>
-    <row r="11" spans="1:35" s="38" customFormat="1">
+    <row r="11" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -9441,7 +9832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -9507,7 +9898,7 @@
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
     </row>
-    <row r="13" spans="1:35" s="39" customFormat="1">
+    <row r="13" spans="1:35" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -9563,7 +9954,7 @@
       <c r="AH13" s="37"/>
       <c r="AI13" s="37"/>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -9625,7 +10016,7 @@
       <c r="AH14" s="13"/>
       <c r="AI14" s="13"/>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -9668,7 +10059,7 @@
       <c r="AH15" s="13"/>
       <c r="AI15" s="13"/>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -9711,7 +10102,7 @@
       <c r="AH16" s="13"/>
       <c r="AI16" s="13"/>
     </row>
-    <row r="17" spans="1:35" s="38" customFormat="1">
+    <row r="17" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -9848,7 +10239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -9914,7 +10305,7 @@
       <c r="AH18" s="13"/>
       <c r="AI18" s="13"/>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -9970,7 +10361,7 @@
       <c r="AH19" s="13"/>
       <c r="AI19" s="13"/>
     </row>
-    <row r="20" spans="1:35" s="39" customFormat="1">
+    <row r="20" spans="1:35" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -10022,7 +10413,7 @@
       <c r="AH20" s="37"/>
       <c r="AI20" s="37"/>
     </row>
-    <row r="21" spans="1:35" s="39" customFormat="1">
+    <row r="21" spans="1:35" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -10072,7 +10463,7 @@
       <c r="AH21" s="46"/>
       <c r="AI21" s="46"/>
     </row>
-    <row r="22" spans="1:35" s="38" customFormat="1">
+    <row r="22" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -10209,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -10261,7 +10652,7 @@
       <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -10313,7 +10704,7 @@
       <c r="AH24" s="13"/>
       <c r="AI24" s="13"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -10356,7 +10747,7 @@
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -10411,7 +10802,7 @@
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -10455,7 +10846,7 @@
       <c r="AH27" s="15"/>
       <c r="AI27" s="15"/>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -10592,7 +10983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" s="43" customFormat="1">
+    <row r="29" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -10603,7 +10994,7 @@
       <c r="C29" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="67" t="s">
         <v>384</v>
       </c>
       <c r="E29" s="43">
@@ -10658,7 +11049,7 @@
       <c r="AH29" s="37"/>
       <c r="AI29" s="37"/>
     </row>
-    <row r="30" spans="1:35" s="43" customFormat="1">
+    <row r="30" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -10728,7 +11119,7 @@
       <c r="AH30" s="37"/>
       <c r="AI30" s="37"/>
     </row>
-    <row r="31" spans="1:35" s="43" customFormat="1">
+    <row r="31" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -10784,7 +11175,7 @@
       <c r="AH31" s="37"/>
       <c r="AI31" s="37"/>
     </row>
-    <row r="32" spans="1:35" s="43" customFormat="1">
+    <row r="32" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -10840,7 +11231,7 @@
       <c r="AH32" s="37"/>
       <c r="AI32" s="37"/>
     </row>
-    <row r="33" spans="1:35" s="43" customFormat="1">
+    <row r="33" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -10902,7 +11293,7 @@
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
     </row>
-    <row r="34" spans="1:35" s="43" customFormat="1">
+    <row r="34" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -10958,7 +11349,7 @@
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
     </row>
-    <row r="35" spans="1:35" s="43" customFormat="1">
+    <row r="35" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -11014,7 +11405,7 @@
       <c r="AH35" s="13"/>
       <c r="AI35" s="13"/>
     </row>
-    <row r="36" spans="1:35" s="43" customFormat="1">
+    <row r="36" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -11082,7 +11473,7 @@
       <c r="AH36" s="13"/>
       <c r="AI36" s="13"/>
     </row>
-    <row r="37" spans="1:35" s="43" customFormat="1">
+    <row r="37" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -11152,7 +11543,7 @@
       <c r="AH37" s="13"/>
       <c r="AI37" s="13"/>
     </row>
-    <row r="38" spans="1:35" s="43" customFormat="1">
+    <row r="38" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -11200,7 +11591,7 @@
       <c r="AH38" s="13"/>
       <c r="AI38" s="13"/>
     </row>
-    <row r="39" spans="1:35" s="43" customFormat="1">
+    <row r="39" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -11244,7 +11635,7 @@
       <c r="AH39" s="13"/>
       <c r="AI39" s="13"/>
     </row>
-    <row r="40" spans="1:35" s="43" customFormat="1">
+    <row r="40" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -11288,7 +11679,7 @@
       <c r="AH40" s="13"/>
       <c r="AI40" s="13"/>
     </row>
-    <row r="41" spans="1:35" s="41" customFormat="1">
+    <row r="41" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -11425,7 +11816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:35" s="43" customFormat="1">
+    <row r="42" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -11481,7 +11872,7 @@
       <c r="AH42" s="13"/>
       <c r="AI42" s="13"/>
     </row>
-    <row r="43" spans="1:35" s="43" customFormat="1">
+    <row r="43" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -11537,7 +11928,7 @@
       <c r="AH43" s="13"/>
       <c r="AI43" s="13"/>
     </row>
-    <row r="44" spans="1:35" s="43" customFormat="1">
+    <row r="44" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -11599,7 +11990,7 @@
       <c r="AH44" s="13"/>
       <c r="AI44" s="13"/>
     </row>
-    <row r="45" spans="1:35" s="43" customFormat="1">
+    <row r="45" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -11648,7 +12039,7 @@
       <c r="AH45" s="13"/>
       <c r="AI45" s="13"/>
     </row>
-    <row r="46" spans="1:35" s="43" customFormat="1">
+    <row r="46" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -11714,7 +12105,7 @@
       <c r="AH46" s="13"/>
       <c r="AI46" s="13"/>
     </row>
-    <row r="47" spans="1:35" s="43" customFormat="1">
+    <row r="47" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -11760,7 +12151,7 @@
       <c r="AH47" s="13"/>
       <c r="AI47" s="13"/>
     </row>
-    <row r="48" spans="1:35" s="43" customFormat="1">
+    <row r="48" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -11810,7 +12201,7 @@
       <c r="AH48" s="13"/>
       <c r="AI48" s="13"/>
     </row>
-    <row r="49" spans="1:35" s="43" customFormat="1">
+    <row r="49" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -11862,7 +12253,7 @@
       <c r="AH49" s="13"/>
       <c r="AI49" s="13"/>
     </row>
-    <row r="50" spans="1:35" s="43" customFormat="1">
+    <row r="50" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -11922,7 +12313,7 @@
       <c r="AH50" s="13"/>
       <c r="AI50" s="13"/>
     </row>
-    <row r="51" spans="1:35" s="41" customFormat="1">
+    <row r="51" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -12059,7 +12450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:35" s="41" customFormat="1">
+    <row r="52" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -12196,7 +12587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:35" s="43" customFormat="1">
+    <row r="53" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -12248,7 +12639,7 @@
       <c r="AH53" s="13"/>
       <c r="AI53" s="13"/>
     </row>
-    <row r="54" spans="1:35" s="43" customFormat="1">
+    <row r="54" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -12300,7 +12691,7 @@
       <c r="AH54" s="13"/>
       <c r="AI54" s="13"/>
     </row>
-    <row r="55" spans="1:35" s="43" customFormat="1">
+    <row r="55" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -12344,7 +12735,7 @@
       <c r="AH55" s="13"/>
       <c r="AI55" s="13"/>
     </row>
-    <row r="56" spans="1:35" s="41" customFormat="1">
+    <row r="56" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -12481,7 +12872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35" s="43" customFormat="1">
+    <row r="57" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -12551,7 +12942,7 @@
       <c r="AH57" s="13"/>
       <c r="AI57" s="13"/>
     </row>
-    <row r="58" spans="1:35" s="38" customFormat="1">
+    <row r="58" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="str">
         <f t="shared" si="0"/>
         <v>PA2408010</v>
@@ -12701,19 +13092,19 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="12.7109375" style="20" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="12.6640625" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
@@ -12775,7 +13166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -12825,7 +13216,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -12889,18 +13280,18 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="15.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -12931,6 +13322,3200 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5789743F-0FF5-4B36-A337-C068ADBD7D12}">
+  <dimension ref="A1:AK38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:AK26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="2.5546875" customWidth="1"/>
+    <col min="5" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B1" s="52" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52">
+        <v>1986</v>
+      </c>
+      <c r="F1" s="52">
+        <v>1987</v>
+      </c>
+      <c r="G1" s="52">
+        <v>1988</v>
+      </c>
+      <c r="H1" s="52">
+        <v>1989</v>
+      </c>
+      <c r="I1" s="52">
+        <v>1990</v>
+      </c>
+      <c r="J1" s="52">
+        <v>1991</v>
+      </c>
+      <c r="K1" s="52">
+        <v>1992</v>
+      </c>
+      <c r="L1" s="52">
+        <v>1993</v>
+      </c>
+      <c r="M1" s="52">
+        <v>1994</v>
+      </c>
+      <c r="N1" s="52">
+        <v>1995</v>
+      </c>
+      <c r="O1" s="52">
+        <v>1996</v>
+      </c>
+      <c r="P1" s="52">
+        <v>1997</v>
+      </c>
+      <c r="Q1" s="52">
+        <v>1998</v>
+      </c>
+      <c r="R1" s="52">
+        <v>1999</v>
+      </c>
+      <c r="S1" s="52">
+        <v>2000</v>
+      </c>
+      <c r="T1" s="52">
+        <v>2001</v>
+      </c>
+      <c r="U1" s="52">
+        <v>2002</v>
+      </c>
+      <c r="V1" s="52">
+        <v>2003</v>
+      </c>
+      <c r="W1" s="52">
+        <v>2004</v>
+      </c>
+      <c r="X1" s="52">
+        <v>2005</v>
+      </c>
+      <c r="Y1" s="52">
+        <v>2006</v>
+      </c>
+      <c r="Z1" s="52">
+        <v>2007</v>
+      </c>
+      <c r="AA1" s="52">
+        <v>2008</v>
+      </c>
+      <c r="AB1" s="52">
+        <v>2009</v>
+      </c>
+      <c r="AC1" s="52">
+        <v>2010</v>
+      </c>
+      <c r="AD1" s="52">
+        <v>2011</v>
+      </c>
+      <c r="AE1" s="52">
+        <v>2012</v>
+      </c>
+      <c r="AF1" s="52">
+        <v>2013</v>
+      </c>
+      <c r="AG1" s="52">
+        <v>2014</v>
+      </c>
+      <c r="AH1" s="52">
+        <v>2015</v>
+      </c>
+      <c r="AI1" s="52">
+        <v>2016</v>
+      </c>
+      <c r="AJ1" s="52">
+        <v>2017</v>
+      </c>
+      <c r="AK1" s="52">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2">
+        <f>fiscal!E14</f>
+        <v>2981184</v>
+      </c>
+      <c r="H2">
+        <f>fiscal!F14</f>
+        <v>3658181</v>
+      </c>
+      <c r="I2">
+        <f>fiscal!G14</f>
+        <v>3761230</v>
+      </c>
+      <c r="J2">
+        <f>fiscal!H14</f>
+        <v>3945264</v>
+      </c>
+      <c r="K2">
+        <f>fiscal!I14</f>
+        <v>4650204</v>
+      </c>
+      <c r="L2">
+        <f>fiscal!J14</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>fiscal!K14</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>fiscal!L14</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>fiscal!M14</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>fiscal!N14</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>fiscal!O14</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>fiscal!P14</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>fiscal!Q14</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>fiscal!R14</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>fiscal!S14</f>
+        <v>6817965</v>
+      </c>
+      <c r="V2">
+        <f>fiscal!T14</f>
+        <v>6810895</v>
+      </c>
+      <c r="W2">
+        <f>fiscal!U14</f>
+        <v>7134754</v>
+      </c>
+      <c r="X2">
+        <f>fiscal!V14</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>fiscal!W14</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>fiscal!X14</f>
+        <v>7518696</v>
+      </c>
+      <c r="AA2">
+        <f>fiscal!Y14</f>
+        <v>7686191</v>
+      </c>
+      <c r="AB2">
+        <f>fiscal!Z14</f>
+        <v>8242740.9949999992</v>
+      </c>
+      <c r="AC2">
+        <f>fiscal!AA14</f>
+        <v>8219117.3399999999</v>
+      </c>
+      <c r="AD2">
+        <f>fiscal!AB14</f>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f>fiscal!AC14</f>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f>fiscal!AD14</f>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f>fiscal!AE14</f>
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f>fiscal!AF14</f>
+        <v>9690203</v>
+      </c>
+      <c r="AI2">
+        <f>fiscal!AG14</f>
+        <v>10157726</v>
+      </c>
+      <c r="AJ2">
+        <f>fiscal!AH14</f>
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <f>fiscal!AI14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="G3">
+        <f>fiscal!E21</f>
+        <v>2271313</v>
+      </c>
+      <c r="H3">
+        <f>fiscal!F21</f>
+        <v>2460225</v>
+      </c>
+      <c r="I3">
+        <f>fiscal!G21</f>
+        <v>2442439</v>
+      </c>
+      <c r="J3">
+        <f>fiscal!H21</f>
+        <v>2541696</v>
+      </c>
+      <c r="K3">
+        <f>fiscal!I21</f>
+        <v>2943246</v>
+      </c>
+      <c r="L3">
+        <f>fiscal!J21</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>fiscal!K21</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>fiscal!L21</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>fiscal!M21</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>fiscal!N21</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>fiscal!O21</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>fiscal!P21</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>fiscal!Q21</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>fiscal!R21</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>fiscal!S21</f>
+        <v>5272777</v>
+      </c>
+      <c r="V3">
+        <f>fiscal!T21</f>
+        <v>5212841</v>
+      </c>
+      <c r="W3">
+        <f>fiscal!U21</f>
+        <v>5289961</v>
+      </c>
+      <c r="X3">
+        <f>fiscal!V21</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>fiscal!W21</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f>fiscal!X21</f>
+        <v>5632564</v>
+      </c>
+      <c r="AA3">
+        <f>fiscal!Y21</f>
+        <v>5745504</v>
+      </c>
+      <c r="AB3">
+        <f>fiscal!Z21</f>
+        <v>6031105</v>
+      </c>
+      <c r="AC3">
+        <f>fiscal!AA21</f>
+        <v>6007861</v>
+      </c>
+      <c r="AD3">
+        <f>fiscal!AB21</f>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f>fiscal!AC21</f>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f>fiscal!AD21</f>
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <f>fiscal!AE21</f>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f>fiscal!AF21</f>
+        <v>8549916</v>
+      </c>
+      <c r="AI3">
+        <f>fiscal!AG21</f>
+        <v>8940877</v>
+      </c>
+      <c r="AJ3">
+        <f>fiscal!AH21</f>
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <f>fiscal!AI21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55">
+        <f>fiscal!E17</f>
+        <v>273533</v>
+      </c>
+      <c r="H4" s="55">
+        <f>fiscal!F17</f>
+        <v>333927</v>
+      </c>
+      <c r="I4" s="55">
+        <f>fiscal!G17</f>
+        <v>370873</v>
+      </c>
+      <c r="J4" s="55">
+        <f>fiscal!H17</f>
+        <v>424787</v>
+      </c>
+      <c r="K4" s="55">
+        <f>fiscal!I17</f>
+        <v>456070</v>
+      </c>
+      <c r="L4" s="55">
+        <f>fiscal!J17</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="55">
+        <f>fiscal!K17</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="55">
+        <f>fiscal!L17</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="55">
+        <f>fiscal!M17</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="55">
+        <f>fiscal!N17</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="55">
+        <f>fiscal!O17</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="55">
+        <f>fiscal!P17</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="55">
+        <f>fiscal!Q17</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="55">
+        <f>fiscal!R17</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="55">
+        <f>fiscal!S17</f>
+        <v>1495402</v>
+      </c>
+      <c r="V4" s="55">
+        <f>fiscal!T17</f>
+        <v>1565714</v>
+      </c>
+      <c r="W4" s="55">
+        <f>fiscal!U17</f>
+        <v>1590897</v>
+      </c>
+      <c r="X4" s="55">
+        <f>fiscal!V17</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="55">
+        <f>fiscal!W17</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="55">
+        <f>fiscal!X17</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="55">
+        <f>fiscal!Y17</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="55">
+        <f>fiscal!Z17</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="55">
+        <f>fiscal!AA17</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="55">
+        <f>fiscal!AB17</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="55">
+        <f>fiscal!AC17</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="55">
+        <f>fiscal!AD17</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="55">
+        <f>fiscal!AE17</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="55">
+        <f>fiscal!AF17</f>
+        <v>1841967</v>
+      </c>
+      <c r="AI4" s="55">
+        <f>fiscal!AG17</f>
+        <v>1875020</v>
+      </c>
+      <c r="AJ4" s="55">
+        <f>fiscal!AH17</f>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="55">
+        <f>fiscal!AI17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="G5">
+        <f>Assets!E30</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>Assets!F30</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>Assets!G30</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>Assets!H30</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>Assets!I30</f>
+        <v>33803</v>
+      </c>
+      <c r="L5">
+        <f>Assets!J30</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>Assets!K30</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>Assets!L30</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>Assets!M30</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>Assets!N30</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>Assets!O30</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f>Assets!P30</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>Assets!Q30</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f>Assets!R30</f>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f>Assets!S30</f>
+        <v>2345545</v>
+      </c>
+      <c r="V5">
+        <f>Assets!T30</f>
+        <v>2409737</v>
+      </c>
+      <c r="W5">
+        <f>Assets!U30</f>
+        <v>2607600</v>
+      </c>
+      <c r="X5">
+        <f>Assets!V30</f>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f>Assets!W30</f>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f>Assets!X30</f>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f>Assets!Y30</f>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f>Assets!Z30</f>
+        <v>2816498</v>
+      </c>
+      <c r="AC5">
+        <f>Assets!AA30</f>
+        <v>2863917</v>
+      </c>
+      <c r="AD5">
+        <f>Assets!AB30</f>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <f>Assets!AC30</f>
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <f>Assets!AD30</f>
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <f>Assets!AE30</f>
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f>Assets!AF30</f>
+        <v>4169949</v>
+      </c>
+      <c r="AI5">
+        <f>Assets!AG30</f>
+        <v>3250840</v>
+      </c>
+      <c r="AJ5">
+        <f>Assets!AH30</f>
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <f>Assets!AI30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55">
+        <f>Assets!E11-Assets!E7</f>
+        <v>848032</v>
+      </c>
+      <c r="H7" s="55">
+        <f>Assets!F11-Assets!F7</f>
+        <v>1078644</v>
+      </c>
+      <c r="I7" s="55">
+        <f>Assets!G11-Assets!G7</f>
+        <v>1203761</v>
+      </c>
+      <c r="J7" s="55">
+        <f>Assets!H11-Assets!H7</f>
+        <v>1110274</v>
+      </c>
+      <c r="K7" s="55">
+        <f>Assets!I11-Assets!I7</f>
+        <v>1297444</v>
+      </c>
+      <c r="L7" s="55">
+        <f>Assets!J11-Assets!J7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="55">
+        <f>Assets!K11-Assets!K7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="55">
+        <f>Assets!L11-Assets!L7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="55">
+        <f>Assets!M11-Assets!M7</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="55">
+        <f>Assets!N11-Assets!N7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="55">
+        <f>Assets!O11-Assets!O7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="55">
+        <f>Assets!P11-Assets!P7</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="55">
+        <f>Assets!Q11-Assets!Q7</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="55">
+        <f>Assets!R11-Assets!R7</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="55">
+        <f>Assets!S11-Assets!S7</f>
+        <v>1461682</v>
+      </c>
+      <c r="V7" s="55">
+        <f>Assets!T11-Assets!T7</f>
+        <v>1549285</v>
+      </c>
+      <c r="W7" s="55">
+        <f>Assets!U11-Assets!U7</f>
+        <v>1559812</v>
+      </c>
+      <c r="X7" s="55">
+        <f>Assets!V11-Assets!V7</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="55">
+        <f>Assets!W11-Assets!W7</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="55">
+        <f>Assets!X11-Assets!X7</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="55">
+        <f>Assets!Y11-Assets!Y7</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="55">
+        <f>Assets!Z11-Assets!Z7</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="55">
+        <f>Assets!AA11-Assets!AA7</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="55">
+        <f>Assets!AB11-Assets!AB7</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="55">
+        <f>Assets!AC11-Assets!AC7</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="55">
+        <f>Assets!AD11-Assets!AD7</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="55">
+        <f>Assets!AE11-Assets!AE7</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="55">
+        <f>Assets!AF11-Assets!AF7</f>
+        <v>1741527</v>
+      </c>
+      <c r="AI7" s="55">
+        <f>Assets!AG11-Assets!AG7</f>
+        <v>1452853</v>
+      </c>
+      <c r="AJ7" s="55">
+        <f>Assets!AH11-Assets!AH7</f>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="55">
+        <f>Assets!AI11-Assets!AI7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55">
+        <f>Assets!E41-Assets!E37</f>
+        <v>912480</v>
+      </c>
+      <c r="H8" s="55">
+        <f>Assets!F41-Assets!F37</f>
+        <v>1009696</v>
+      </c>
+      <c r="I8" s="55">
+        <f>Assets!G41-Assets!G37</f>
+        <v>830671</v>
+      </c>
+      <c r="J8" s="55">
+        <f>Assets!H41-Assets!H37</f>
+        <v>851952</v>
+      </c>
+      <c r="K8" s="55">
+        <f>Assets!I41-Assets!I37</f>
+        <v>2029071</v>
+      </c>
+      <c r="L8" s="55">
+        <f>Assets!J41-Assets!J37</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="55">
+        <f>Assets!K41-Assets!K37</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="55">
+        <f>Assets!L41-Assets!L37</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="55">
+        <f>Assets!M41-Assets!M37</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="55">
+        <f>Assets!N41-Assets!N37</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="55">
+        <f>Assets!O41-Assets!O37</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="55">
+        <f>Assets!P41-Assets!P37</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="55">
+        <f>Assets!Q41-Assets!Q37</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="55">
+        <f>Assets!R41-Assets!R37</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="55">
+        <f>Assets!S41-Assets!S37</f>
+        <v>2885541</v>
+      </c>
+      <c r="V8" s="55">
+        <f>Assets!T41-Assets!T37</f>
+        <v>3106014</v>
+      </c>
+      <c r="W8" s="55">
+        <f>Assets!U41-Assets!U37</f>
+        <v>3136988</v>
+      </c>
+      <c r="X8" s="55">
+        <f>Assets!V41-Assets!V37</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="55">
+        <f>Assets!W41-Assets!W37</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="55">
+        <f>Assets!X41-Assets!X37</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="55">
+        <f>Assets!Y41-Assets!Y37</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="55">
+        <f>Assets!Z41-Assets!Z37</f>
+        <v>3016287</v>
+      </c>
+      <c r="AC8" s="55">
+        <f>Assets!AA41-Assets!AA37</f>
+        <v>4263847</v>
+      </c>
+      <c r="AD8" s="55">
+        <f>Assets!AB41-Assets!AB37</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="55">
+        <f>Assets!AC41-Assets!AC37</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="55">
+        <f>Assets!AD41-Assets!AD37</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="55">
+        <f>Assets!AE41-Assets!AE37</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="55">
+        <f>Assets!AF41-Assets!AF37</f>
+        <v>5693525</v>
+      </c>
+      <c r="AI8" s="55">
+        <f>Assets!AG41-Assets!AG37</f>
+        <v>4512223</v>
+      </c>
+      <c r="AJ8" s="55">
+        <f>Assets!AH41-Assets!AH37</f>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="55">
+        <f>Assets!AI41-Assets!AI37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>434</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>435</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="G9">
+        <f>Assets!E3</f>
+        <v>136656</v>
+      </c>
+      <c r="H9">
+        <f>Assets!F3</f>
+        <v>223416</v>
+      </c>
+      <c r="I9">
+        <f>Assets!G3</f>
+        <v>216605</v>
+      </c>
+      <c r="J9">
+        <f>Assets!H3</f>
+        <v>130734</v>
+      </c>
+      <c r="K9">
+        <f>Assets!I3</f>
+        <v>211639</v>
+      </c>
+      <c r="L9">
+        <f>Assets!J3</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>Assets!K3</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>Assets!L3</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>Assets!M3</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>Assets!N3</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f>Assets!O3</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f>Assets!P3</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>Assets!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f>Assets!R3</f>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f>Assets!S3</f>
+        <v>198635</v>
+      </c>
+      <c r="V9">
+        <f>Assets!T3</f>
+        <v>211337</v>
+      </c>
+      <c r="W9">
+        <f>Assets!U3</f>
+        <v>202761</v>
+      </c>
+      <c r="X9">
+        <f>Assets!V3</f>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f>Assets!W3</f>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f>Assets!X3</f>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f>Assets!Y3</f>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f>Assets!Z3</f>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f>Assets!AA3</f>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f>Assets!AB3</f>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f>Assets!AC3</f>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f>Assets!AD3</f>
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <f>Assets!AE3</f>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f>Assets!AF3</f>
+        <v>106123</v>
+      </c>
+      <c r="AI9">
+        <f>Assets!AG3</f>
+        <v>328994</v>
+      </c>
+      <c r="AJ9">
+        <f>Assets!AH3</f>
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <f>Assets!AI3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>437</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="55"/>
+    </row>
+    <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>440</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>441</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56">
+        <f>Assets!E18</f>
+        <v>17625571</v>
+      </c>
+      <c r="H11" s="56">
+        <f>Assets!F18</f>
+        <v>18005457</v>
+      </c>
+      <c r="I11" s="56">
+        <f>Assets!G18</f>
+        <v>18777475</v>
+      </c>
+      <c r="J11" s="56">
+        <f>Assets!H18</f>
+        <v>20998689</v>
+      </c>
+      <c r="K11" s="56">
+        <f>Assets!I18</f>
+        <v>23175904</v>
+      </c>
+      <c r="L11" s="56">
+        <f>Assets!J18</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="56">
+        <f>Assets!K18</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="56">
+        <f>Assets!L18</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="56">
+        <f>Assets!M18</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="56">
+        <f>Assets!N18</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="56">
+        <f>Assets!O18</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="56">
+        <f>Assets!P18</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="56">
+        <f>Assets!Q18</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="56">
+        <f>Assets!R18</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="56">
+        <f>Assets!S18</f>
+        <v>78531733</v>
+      </c>
+      <c r="V11" s="56">
+        <f>Assets!T18</f>
+        <v>79287396</v>
+      </c>
+      <c r="W11" s="56">
+        <f>Assets!U18</f>
+        <v>81414257</v>
+      </c>
+      <c r="X11" s="56">
+        <f>Assets!V18</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="56">
+        <f>Assets!W18</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="56">
+        <f>Assets!X18</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="56">
+        <f>Assets!Y18</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="56">
+        <f>Assets!Z18</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="56">
+        <f>Assets!AA18</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="56">
+        <f>Assets!AB18</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="56">
+        <f>Assets!AC18</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="56">
+        <f>Assets!AD18</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="56">
+        <f>Assets!AE18</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="56">
+        <f>Assets!AF18</f>
+        <v>67574227</v>
+      </c>
+      <c r="AI11" s="56">
+        <f>Assets!AG18</f>
+        <v>81663131</v>
+      </c>
+      <c r="AJ11" s="56">
+        <f>Assets!AH18</f>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="56">
+        <f>Assets!AI18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="G12">
+        <f>Assets!E28</f>
+        <v>21056295</v>
+      </c>
+      <c r="H12">
+        <f>Assets!F28</f>
+        <v>21842278</v>
+      </c>
+      <c r="I12">
+        <f>Assets!G28</f>
+        <v>22616733</v>
+      </c>
+      <c r="J12">
+        <f>Assets!H28</f>
+        <v>23967914</v>
+      </c>
+      <c r="K12">
+        <f>Assets!I28</f>
+        <v>27607712</v>
+      </c>
+      <c r="L12">
+        <f>Assets!J28</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>Assets!K28</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>Assets!L28</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>Assets!M28</f>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f>Assets!N28</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f>Assets!O28</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f>Assets!P28</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>Assets!Q28</f>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f>Assets!R28</f>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f>Assets!S28</f>
+        <v>70404252</v>
+      </c>
+      <c r="V12">
+        <f>Assets!T28</f>
+        <v>69993174</v>
+      </c>
+      <c r="W12">
+        <f>Assets!U28</f>
+        <v>69524890</v>
+      </c>
+      <c r="X12">
+        <f>Assets!V28</f>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f>Assets!W28</f>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f>Assets!X28</f>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f>Assets!Y28</f>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f>Assets!Z28</f>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f>Assets!AA28</f>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f>Assets!AB28</f>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f>Assets!AC28</f>
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <f>Assets!AD28</f>
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <f>Assets!AE28</f>
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <f>Assets!AF28</f>
+        <v>92372413</v>
+      </c>
+      <c r="AI12">
+        <f>Assets!AG28</f>
+        <v>91836909</v>
+      </c>
+      <c r="AJ12">
+        <f>Assets!AH28</f>
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <f>Assets!AI28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>443</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="G13">
+        <f>Assets!E52</f>
+        <v>11395225</v>
+      </c>
+      <c r="H13">
+        <f>Assets!F52</f>
+        <v>10979696</v>
+      </c>
+      <c r="I13">
+        <f>Assets!G52</f>
+        <v>10492358</v>
+      </c>
+      <c r="J13">
+        <f>Assets!H52</f>
+        <v>9951084</v>
+      </c>
+      <c r="K13">
+        <f>Assets!I52</f>
+        <v>12030414</v>
+      </c>
+      <c r="L13">
+        <f>Assets!J52</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>Assets!K52</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>Assets!L52</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>Assets!M52</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>Assets!N52</f>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f>Assets!O52</f>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f>Assets!P52</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f>Assets!Q52</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f>Assets!R52</f>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f>Assets!S52</f>
+        <v>40137834</v>
+      </c>
+      <c r="V13">
+        <f>Assets!T52</f>
+        <v>38506241</v>
+      </c>
+      <c r="W13">
+        <f>Assets!U52</f>
+        <v>36543543</v>
+      </c>
+      <c r="X13">
+        <f>Assets!V52</f>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f>Assets!W52</f>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f>Assets!X52</f>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f>Assets!Y52</f>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f>Assets!Z52</f>
+        <v>24732634</v>
+      </c>
+      <c r="AC13">
+        <f>Assets!AA52</f>
+        <v>24111111</v>
+      </c>
+      <c r="AD13">
+        <f>Assets!AB52</f>
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <f>Assets!AC52</f>
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <f>Assets!AD52</f>
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <f>Assets!AE52</f>
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f>Assets!AF52</f>
+        <v>27452196</v>
+      </c>
+      <c r="AI13">
+        <f>Assets!AG52</f>
+        <v>25281042</v>
+      </c>
+      <c r="AJ13">
+        <f>Assets!AH52</f>
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <f>Assets!AI52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>445</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>446</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="E14" s="56" t="e">
+        <f t="shared" ref="E14:G14" si="0">E11-D11+E4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="56">
+        <f t="shared" si="0"/>
+        <v>17899104</v>
+      </c>
+      <c r="H14" s="56">
+        <f>H11-G11+H4</f>
+        <v>713813</v>
+      </c>
+      <c r="I14" s="56">
+        <f t="shared" ref="I14:AK14" si="1">I11-H11+I4</f>
+        <v>1142891</v>
+      </c>
+      <c r="J14" s="56">
+        <f t="shared" si="1"/>
+        <v>2646001</v>
+      </c>
+      <c r="K14" s="56">
+        <f t="shared" si="1"/>
+        <v>2633285</v>
+      </c>
+      <c r="L14" s="56">
+        <f t="shared" si="1"/>
+        <v>-23175904</v>
+      </c>
+      <c r="M14" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="56">
+        <f t="shared" si="1"/>
+        <v>80027135</v>
+      </c>
+      <c r="V14" s="56">
+        <f t="shared" si="1"/>
+        <v>2321377</v>
+      </c>
+      <c r="W14" s="56">
+        <f t="shared" si="1"/>
+        <v>3717758</v>
+      </c>
+      <c r="X14" s="56">
+        <f t="shared" si="1"/>
+        <v>-81414257</v>
+      </c>
+      <c r="Y14" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="56">
+        <f t="shared" si="1"/>
+        <v>69416194</v>
+      </c>
+      <c r="AI14" s="56">
+        <f>AI11-AH11+AI4</f>
+        <v>15963924</v>
+      </c>
+      <c r="AJ14" s="56">
+        <f t="shared" si="1"/>
+        <v>-81663131</v>
+      </c>
+      <c r="AK14" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="57" t="s">
+        <v>447</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>448</v>
+      </c>
+      <c r="D16" s="38"/>
+    </row>
+    <row r="17" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>449</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59" t="str">
+        <f>IFERROR(E2/E3, "")</f>
+        <v/>
+      </c>
+      <c r="F17" s="59" t="str">
+        <f t="shared" ref="F17:AK17" si="2">IFERROR(F2/F3, "")</f>
+        <v/>
+      </c>
+      <c r="G17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.3125377259761204</v>
+      </c>
+      <c r="H17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.4869294475098822</v>
+      </c>
+      <c r="I17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.5399483876567643</v>
+      </c>
+      <c r="J17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.5522171022813114</v>
+      </c>
+      <c r="K17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.5799576386071705</v>
+      </c>
+      <c r="L17" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M17" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N17" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O17" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P17" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q17" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R17" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S17" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T17" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.2930501327858166</v>
+      </c>
+      <c r="V17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.3065610479966683</v>
+      </c>
+      <c r="W17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.3487347071178786</v>
+      </c>
+      <c r="X17" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y17" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.3348620628189933</v>
+      </c>
+      <c r="AA17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.337774893203451</v>
+      </c>
+      <c r="AB17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.3667049396420721</v>
+      </c>
+      <c r="AC17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.3680605027313382</v>
+      </c>
+      <c r="AD17" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE17" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF17" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AG17" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.1333682108689722</v>
+      </c>
+      <c r="AI17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.1360995123856419</v>
+      </c>
+      <c r="AJ17" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK17" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>451</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59" t="str">
+        <f>IFERROR(IF(E4="","",E2/(E3-E4)), "")</f>
+        <v/>
+      </c>
+      <c r="F18" s="59" t="str">
+        <f t="shared" ref="F18:AK18" si="3">IFERROR(IF(F4="","",F2/(F3-F4)), "")</f>
+        <v/>
+      </c>
+      <c r="G18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.4922483957192483</v>
+      </c>
+      <c r="H18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.7204460522466747</v>
+      </c>
+      <c r="I18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.8156457481924302</v>
+      </c>
+      <c r="J18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.8636908813746835</v>
+      </c>
+      <c r="K18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.8696722708807096</v>
+      </c>
+      <c r="L18" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M18" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N18" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O18" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P18" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q18" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R18" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S18" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T18" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.8049478804725503</v>
+      </c>
+      <c r="V18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.8674685581280828</v>
+      </c>
+      <c r="W18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.9287998261181747</v>
+      </c>
+      <c r="X18" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y18" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.3348620628189933</v>
+      </c>
+      <c r="AA18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.337774893203451</v>
+      </c>
+      <c r="AB18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.3667049396420721</v>
+      </c>
+      <c r="AC18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.3680605027313382</v>
+      </c>
+      <c r="AD18" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AE18" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AF18" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AG18" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AH18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.4445850736193731</v>
+      </c>
+      <c r="AI18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.4375787678692054</v>
+      </c>
+      <c r="AJ18" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AK18" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>454</v>
+      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="59" t="str">
+        <f>IF(E4="","",IF(E5="","",IF(E6="","",(E2-E3+E4)/(E5+E6))))</f>
+        <v/>
+      </c>
+      <c r="F19" s="59" t="str">
+        <f t="shared" ref="F19:AK19" si="4">IF(F4="","",IF(F5="","",IF(F6="","",(F2-F3+F4)/(F5+F6))))</f>
+        <v/>
+      </c>
+      <c r="G19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Y19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Z19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AF19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AG19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AH19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK19" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>455</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>456</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="59" t="str">
+        <f>IFERROR(IF(E7=0,"",E7/E8), "")</f>
+        <v/>
+      </c>
+      <c r="F20" s="59" t="str">
+        <f t="shared" ref="F20:AK20" si="5">IFERROR(IF(F7=0,"",F7/F8), "")</f>
+        <v/>
+      </c>
+      <c r="G20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.92937050675083288</v>
+      </c>
+      <c r="H20" s="59">
+        <f t="shared" si="5"/>
+        <v>1.0682858999144298</v>
+      </c>
+      <c r="I20" s="59">
+        <f t="shared" si="5"/>
+        <v>1.4491429218065877</v>
+      </c>
+      <c r="J20" s="59">
+        <f t="shared" si="5"/>
+        <v>1.3032119180423309</v>
+      </c>
+      <c r="K20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.63942760011847788</v>
+      </c>
+      <c r="L20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.50655388365647902</v>
+      </c>
+      <c r="V20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.49880167958032384</v>
+      </c>
+      <c r="W20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.49723237704447704</v>
+      </c>
+      <c r="X20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB20" s="59" t="str">
+        <f>IFERROR(IF(AB7=0,"",AB7/AB8), "")</f>
+        <v/>
+      </c>
+      <c r="AC20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.30587851989760295</v>
+      </c>
+      <c r="AI20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.3219816485133824</v>
+      </c>
+      <c r="AJ20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AK20" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>457</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>458</v>
+      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61" t="str">
+        <f>IFERROR(IF(E9=0,"",IF(E4="","",IF(E9="","",E9/((E3-E4)/365)))),"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="61" t="str">
+        <f t="shared" ref="F21:AK21" si="6">IFERROR(IF(F9=0,"",IF(F4="","",IF(F9="","",F9/((F3-F4)/365)))),"")</f>
+        <v/>
+      </c>
+      <c r="G21" s="61">
+        <f t="shared" si="6"/>
+        <v>24.967433851575247</v>
+      </c>
+      <c r="H21" s="61">
+        <f t="shared" si="6"/>
+        <v>38.351557495703801</v>
+      </c>
+      <c r="I21" s="61">
+        <f t="shared" si="6"/>
+        <v>38.164762792978841</v>
+      </c>
+      <c r="J21" s="61">
+        <f t="shared" si="6"/>
+        <v>22.541313773997842</v>
+      </c>
+      <c r="K21" s="61">
+        <f t="shared" si="6"/>
+        <v>31.05861225743574</v>
+      </c>
+      <c r="L21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="U21" s="61">
+        <f t="shared" si="6"/>
+        <v>19.193692709884509</v>
+      </c>
+      <c r="V21" s="61">
+        <f t="shared" si="6"/>
+        <v>21.150347931399153</v>
+      </c>
+      <c r="W21" s="61">
+        <f t="shared" si="6"/>
+        <v>20.0071599193742</v>
+      </c>
+      <c r="X21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AE21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AF21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AG21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AH21" s="61">
+        <f t="shared" si="6"/>
+        <v>5.7744766693962637</v>
+      </c>
+      <c r="AI21" s="61">
+        <f t="shared" si="6"/>
+        <v>16.994797658656267</v>
+      </c>
+      <c r="AJ21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK21" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>459</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>460</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="62" t="str">
+        <f>IFERROR(IF(E10="","",E10/E11), "")</f>
+        <v/>
+      </c>
+      <c r="F22" s="62" t="str">
+        <f t="shared" ref="F22:AK22" si="7">IFERROR(IF(F10="","",F10/F11), "")</f>
+        <v/>
+      </c>
+      <c r="G22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AG22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AH22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AJ22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AK22" s="62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="59" t="str">
+        <f>IFERROR(IF(E12=0,"",IF(E13=0,"",E13/(E12-E13))),"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="59" t="str">
+        <f t="shared" ref="F23:AK23" si="8">IFERROR(IF(F12=0,"",IF(F13=0,"",F13/(F12-F13))),"")</f>
+        <v/>
+      </c>
+      <c r="G23" s="59">
+        <f t="shared" si="8"/>
+        <v>1.179499268714542</v>
+      </c>
+      <c r="H23" s="59">
+        <f t="shared" si="8"/>
+        <v>1.0107814145844882</v>
+      </c>
+      <c r="I23" s="59">
+        <f t="shared" si="8"/>
+        <v>0.86539372132584158</v>
+      </c>
+      <c r="J23" s="59">
+        <f t="shared" si="8"/>
+        <v>0.70993826706894503</v>
+      </c>
+      <c r="K23" s="59">
+        <f t="shared" si="8"/>
+        <v>0.77230428537734852</v>
+      </c>
+      <c r="L23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="R23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="U23" s="59">
+        <f t="shared" si="8"/>
+        <v>1.3261507853357473</v>
+      </c>
+      <c r="V23" s="59">
+        <f t="shared" si="8"/>
+        <v>1.2229276506543207</v>
+      </c>
+      <c r="W23" s="59">
+        <f t="shared" si="8"/>
+        <v>1.1080063831231635</v>
+      </c>
+      <c r="X23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Z23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH23" s="59">
+        <f t="shared" si="8"/>
+        <v>0.4228605089228214</v>
+      </c>
+      <c r="AI23" s="59">
+        <f t="shared" si="8"/>
+        <v>0.37984693370458233</v>
+      </c>
+      <c r="AJ23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AK23" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>463</v>
+      </c>
+      <c r="B24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>465</v>
+      </c>
+      <c r="D24" s="60"/>
+      <c r="E24" s="63" t="str">
+        <f>IFERROR(IF(E10="","",IF(E10=0,"",E10/E4)),"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="63" t="str">
+        <f t="shared" ref="F24:AK24" si="9">IFERROR(IF(F10="","",IF(F10=0,"",F10/F4)),"")</f>
+        <v/>
+      </c>
+      <c r="G24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="P24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Q24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="U24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="V24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="W24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AD24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AE24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AF24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AG24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AH24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AI24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AJ24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AK24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>466</v>
+      </c>
+      <c r="B25" t="s">
+        <v>467</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>444</v>
+      </c>
+      <c r="D25" s="58"/>
+      <c r="E25" s="56" t="str">
+        <f>IFERROR(IF(E14=0,"",IF(E14&lt;0,"",E14)),"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="56" t="str">
+        <f t="shared" ref="F25:AK25" si="10">IFERROR(IF(F14=0,"",IF(F14&lt;0,"",F14)),"")</f>
+        <v/>
+      </c>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56">
+        <f t="shared" si="10"/>
+        <v>713813</v>
+      </c>
+      <c r="I25" s="56">
+        <f t="shared" si="10"/>
+        <v>1142891</v>
+      </c>
+      <c r="J25" s="56">
+        <f t="shared" si="10"/>
+        <v>2646001</v>
+      </c>
+      <c r="K25" s="56">
+        <f t="shared" si="10"/>
+        <v>2633285</v>
+      </c>
+      <c r="L25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Q25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="R25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56">
+        <f t="shared" si="10"/>
+        <v>2321377</v>
+      </c>
+      <c r="W25" s="56">
+        <f t="shared" si="10"/>
+        <v>3717758</v>
+      </c>
+      <c r="X25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Y25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AA25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AB25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AC25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AE25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AG25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56">
+        <f t="shared" si="10"/>
+        <v>15963924</v>
+      </c>
+      <c r="AJ25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AK25" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>468</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>469</v>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="E26" s="62" t="str">
+        <f>IFERROR(IF(E25/E4=0, "",E25/E4),"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="62" t="str">
+        <f t="shared" ref="F26:AK26" si="11">IFERROR(IF(F25/F4=0, "",F25/F4),"")</f>
+        <v/>
+      </c>
+      <c r="G26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H26" s="62">
+        <f t="shared" si="11"/>
+        <v>2.1376318776259482</v>
+      </c>
+      <c r="I26" s="62">
+        <f t="shared" si="11"/>
+        <v>3.0816236285736629</v>
+      </c>
+      <c r="J26" s="62">
+        <f t="shared" si="11"/>
+        <v>6.2290065373940351</v>
+      </c>
+      <c r="K26" s="62">
+        <f t="shared" si="11"/>
+        <v>5.7738614686342009</v>
+      </c>
+      <c r="L26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="M26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="P26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="S26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="T26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V26" s="62">
+        <f t="shared" si="11"/>
+        <v>1.4826315661736436</v>
+      </c>
+      <c r="W26" s="62">
+        <f t="shared" si="11"/>
+        <v>2.3368942175389105</v>
+      </c>
+      <c r="X26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Y26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Z26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AC26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AF26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AG26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AH26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AI26" s="62">
+        <f t="shared" si="11"/>
+        <v>8.5140019839788383</v>
+      </c>
+      <c r="AJ26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AK26" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+    </row>
+    <row r="28" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>471</v>
+      </c>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12940,28 +16525,28 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1"/>
-    <col min="12" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -13002,7 +16587,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -13044,7 +16629,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -13083,7 +16668,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -13122,7 +16707,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -13161,7 +16746,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -13200,7 +16785,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -13239,7 +16824,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -13278,7 +16863,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -13317,7 +16902,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -13356,7 +16941,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -13395,7 +16980,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -13434,7 +17019,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -13473,7 +17058,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -13512,7 +17097,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -13551,7 +17136,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -13590,7 +17175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -13629,7 +17214,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -13668,7 +17253,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -13707,7 +17292,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -13746,7 +17331,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -13785,7 +17370,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -13824,7 +17409,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -13863,7 +17448,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -13902,7 +17487,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -13941,7 +17526,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -13980,7 +17565,7 @@
         <v>100.31699999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -14019,7 +17604,7 @@
         <v>101.586</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -14058,7 +17643,7 @@
         <v>103.744</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -14097,7 +17682,7 @@
         <v>105.08199999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -14136,7 +17721,7 @@
         <v>106.099</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -14175,7 +17760,7 @@
         <v>106.96899999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -14214,7 +17799,7 @@
         <v>107.639</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -14253,7 +17838,7 @@
         <v>108.11799999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -14292,7 +17877,7 @@
         <v>108.488</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -14331,7 +17916,7 @@
         <v>108.70099999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -14370,7 +17955,7 @@
         <v>108.854</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -14423,16 +18008,16 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="13.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="13.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -14452,7 +18037,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -14469,7 +18054,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -14486,7 +18071,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -14503,7 +18088,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -14520,7 +18105,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -14537,7 +18122,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -14554,7 +18139,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -14571,7 +18156,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -14588,7 +18173,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -14605,7 +18190,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -14622,7 +18207,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -14639,7 +18224,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -14656,7 +18241,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -14673,7 +18258,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -14704,19 +18289,19 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -14757,7 +18342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -14768,7 +18353,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -14803,7 +18388,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -14826,7 +18411,7 @@
         <v>175987</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -14849,7 +18434,7 @@
         <v>12757852</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -14872,7 +18457,7 @@
         <v>9589602</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -14895,7 +18480,7 @@
         <v>1307861</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -14918,7 +18503,7 @@
         <v>204123</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -14944,7 +18529,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -14973,7 +18558,7 @@
         <v>7400000</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -15010,18 +18595,18 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
     <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
@@ -15053,7 +18638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -15075,7 +18660,7 @@
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
     </row>
-    <row r="3" spans="1:10" ht="15.95" customHeight="1">
+    <row r="3" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -15097,7 +18682,7 @@
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -15127,20 +18712,20 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.85546875" style="48"/>
-    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="48"/>
+    <col min="5" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -15169,7 +18754,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="34" customFormat="1">
+    <row r="2" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="str">
         <f>A3</f>
         <v>PA2408010</v>
@@ -15191,7 +18776,7 @@
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -15208,7 +18793,7 @@
         <v>1011110</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -15225,7 +18810,7 @@
         <v>1398362</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -15255,19 +18840,19 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
@@ -15293,7 +18878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>37</v>
       </c>
@@ -15313,7 +18898,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>37</v>
       </c>
@@ -15333,7 +18918,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>37</v>
       </c>
@@ -15353,7 +18938,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>37</v>
       </c>
@@ -15373,7 +18958,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
@@ -15393,7 +18978,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>37</v>
       </c>
@@ -15413,7 +18998,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>37</v>
       </c>
@@ -15433,7 +19018,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>37</v>
       </c>
@@ -15453,7 +19038,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>37</v>
       </c>
@@ -15473,7 +19058,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>37</v>
       </c>
@@ -15507,32 +19092,32 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="8.85546875" style="1"/>
+    <col min="17" max="17" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="8.88671875" style="1"/>
     <col min="21" max="21" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="1"/>
+    <col min="22" max="22" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -15609,7 +19194,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>37</v>
       </c>
@@ -15668,7 +19253,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>37</v>
       </c>
@@ -15718,7 +19303,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>37</v>
       </c>
@@ -15751,7 +19336,7 @@
         <v>15117</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>37</v>
       </c>
@@ -15785,7 +19370,7 @@
         <v>15141</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
